--- a/public/doctor_upload_sample.xlsx
+++ b/public/doctor_upload_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choenamho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BC5A0-0282-6746-A625-D783190A6AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3B1D7-9CDD-4B49-A688-4731DEE623C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="1120" windowWidth="28100" windowHeight="17380" xr2:uid="{4E9740E2-CE1C-3E45-B0D1-AFA271AD6583}"/>
+    <workbookView xWindow="2140" yWindow="1120" windowWidth="19600" windowHeight="16900" xr2:uid="{4E9740E2-CE1C-3E45-B0D1-AFA271AD6583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,20 +129,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -151,17 +172,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,95 +502,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C6D84-C530-E142-A192-A7FE3227D40D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
